--- a/com.AutomationFramework/src/test/resources/TestData.xlsx
+++ b/com.AutomationFramework/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\git\QWA_SJFVD-M2Repository\com.AutomationFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0513896A-61A8-47B6-B9D1-264B72BB3565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203F7026-F41E-4EA2-8234-4E8BAE64874C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{7D7302D4-45E0-47CA-9F64-F6D4C091EEDC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>Admin1</t>
+  </si>
+  <si>
+    <t>Manager1</t>
+  </si>
+  <si>
+    <t>Manager2</t>
+  </si>
+  <si>
+    <t>manager2</t>
   </si>
 </sst>
 </file>
@@ -421,7 +439,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,10 +457,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -455,10 +473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5758689F-AAB5-4E34-8180-F243C279291A}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -481,10 +499,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
